--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067881.398508362</v>
+        <v>1073373.705471143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977805</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.93189091174537</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>133.4850913305375</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -713,19 +715,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -899,22 +901,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>142.5875795801574</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.58889074588475</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.96189723698664</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>233.2385090293387</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>371.1490006569981</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1379,13 +1381,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2385090293387</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>99.51081038270344</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8573074403709</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>318.9744712724925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>238.1286523881597</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1847,19 +1849,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>66.68447052885355</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>233.2385090293387</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>97.61153143263792</v>
+        <v>125.6476561767118</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>348.9059729242638</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>182.925927060141</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2144,7 +2146,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>92.50746544078407</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -2287,7 +2289,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>54.25015388424831</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.5461737957331</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.7406737689586</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>256.7115579699417</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>267.5449688633063</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.76759414464944</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>184.3666582605925</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>140.7543593887953</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2855,7 +2857,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.924018829883175</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6985751920914</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3035,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.800613650335349</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>315.8538103267784</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.17257628986151</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>159.3149947016328</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.5446673791842</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>127.5142861497167</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3332,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.12524771457645</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>39.19550843742099</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>394.6220495976011</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>148.0214568255125</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -3560,13 +3562,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.393719021659</v>
+        <v>11.97291261316126</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.126850821345453</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>301.6400355822632</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3992,7 +3994,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>233.2385090293388</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>181.5440065831534</v>
+        <v>224.4432598339992</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1243.319282867973</v>
+        <v>2277.454568280369</v>
       </c>
       <c r="C2" t="n">
-        <v>850.1437813709033</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D2" t="n">
-        <v>464.702652587571</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E2" t="n">
-        <v>62.11912770411553</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F2" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4352,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V2" t="n">
-        <v>2118.082688844361</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.082688844361</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X2" t="n">
-        <v>1728.630083777417</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1332.139374698019</v>
+        <v>2677.949313991765</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4409,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L3" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M3" t="n">
-        <v>568.1699486069232</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N3" t="n">
         <v>1223.947919817482</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1798.55083824553</v>
+        <v>1001.906012246416</v>
       </c>
       <c r="C5" t="n">
-        <v>1405.375336748461</v>
+        <v>608.7305107493462</v>
       </c>
       <c r="D5" t="n">
-        <v>1019.934207965129</v>
+        <v>608.7305107493462</v>
       </c>
       <c r="E5" t="n">
-        <v>617.350683081673</v>
+        <v>206.1469858658907</v>
       </c>
       <c r="F5" t="n">
-        <v>200.4562446116507</v>
+        <v>206.1469858658907</v>
       </c>
       <c r="G5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4595,22 +4597,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>2595.536293036326</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V5" t="n">
-        <v>2595.536293036326</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="W5" t="n">
-        <v>2595.536293036326</v>
+        <v>2188.344072104155</v>
       </c>
       <c r="X5" t="n">
-        <v>2595.536293036326</v>
+        <v>1798.891467037211</v>
       </c>
       <c r="Y5" t="n">
-        <v>2199.045583956927</v>
+        <v>1402.400757957813</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>691.2836731261136</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1319.055322752795</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N6" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
         <v>1974.833293963354</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4759,16 +4761,16 @@
         <v>115.6912334709294</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>937.702050557157</v>
+        <v>2308.970930414981</v>
       </c>
       <c r="C8" t="n">
-        <v>937.702050557157</v>
+        <v>1915.795428917911</v>
       </c>
       <c r="D8" t="n">
-        <v>937.702050557157</v>
+        <v>1530.354300134579</v>
       </c>
       <c r="E8" t="n">
-        <v>937.702050557157</v>
+        <v>1127.770775251123</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>710.876336781101</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>297.7135812691042</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4826,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X8" t="n">
-        <v>1334.192759636556</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y8" t="n">
-        <v>937.702050557157</v>
+        <v>2709.465676126377</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4984,16 +4986,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>849.2563164731562</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T10" t="n">
-        <v>613.5372646413903</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>328.0984728832913</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V10" t="n">
         <v>62.11912770411553</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2308.970930414981</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="C11" t="n">
-        <v>1915.795428917911</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D11" t="n">
-        <v>1530.354300134579</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E11" t="n">
-        <v>1127.770775251123</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F11" t="n">
-        <v>710.876336781101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G11" t="n">
-        <v>297.7135812691042</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5071,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3005.440415122237</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2749.687685556836</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2407.580876260355</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2036.581841228642</v>
       </c>
       <c r="X11" t="n">
-        <v>3105.956385205776</v>
+        <v>1647.129236161699</v>
       </c>
       <c r="Y11" t="n">
-        <v>2709.465676126377</v>
+        <v>1250.6385270823</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E13" t="n">
-        <v>195.2135530670377</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F13" t="n">
-        <v>195.2135530670377</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G13" t="n">
-        <v>195.2135530670377</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H13" t="n">
-        <v>195.2135530670377</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5224,25 +5226,25 @@
         <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.2135530670377</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522.652680240431</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="C14" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="D14" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="E14" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F14" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5300,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>2698.908837835555</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.089775129883</v>
+        <v>2356.802028539073</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.09074009817</v>
+        <v>1985.80299350736</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.638135031227</v>
+        <v>1596.350388440417</v>
       </c>
       <c r="Y14" t="n">
-        <v>923.1474259518279</v>
+        <v>1199.859679361019</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S16" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>522.652680240431</v>
+        <v>2308.970930414981</v>
       </c>
       <c r="C17" t="n">
-        <v>129.4771787433615</v>
+        <v>1915.795428917911</v>
       </c>
       <c r="D17" t="n">
-        <v>62.11912770411553</v>
+        <v>1530.354300134579</v>
       </c>
       <c r="E17" t="n">
-        <v>62.11912770411553</v>
+        <v>1127.770775251123</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411553</v>
+        <v>710.876336781101</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411553</v>
+        <v>297.7135812691042</v>
       </c>
       <c r="H17" t="n">
         <v>62.11912770411553</v>
@@ -5537,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.638135031227</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y17" t="n">
-        <v>923.1474259518279</v>
+        <v>2709.465676126377</v>
       </c>
     </row>
     <row r="18">
@@ -5701,19 +5703,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>864.9686437480539</v>
+        <v>836.6493258247469</v>
       </c>
       <c r="U19" t="n">
-        <v>579.5298519899548</v>
+        <v>551.2105340666479</v>
       </c>
       <c r="V19" t="n">
-        <v>579.5298519899548</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="W19" t="n">
-        <v>296.1994499211324</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y19" t="n">
         <v>62.11912770411553</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1372.364483646203</v>
+        <v>593.6317461087201</v>
       </c>
       <c r="C20" t="n">
-        <v>1372.364483646203</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="D20" t="n">
-        <v>1019.934207965129</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E20" t="n">
-        <v>617.350683081673</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F20" t="n">
         <v>200.4562446116507</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T20" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>2882.455782765193</v>
+        <v>2493.175650294653</v>
       </c>
       <c r="V20" t="n">
-        <v>2540.348973468711</v>
+        <v>2151.068840998172</v>
       </c>
       <c r="W20" t="n">
-        <v>2169.349938436999</v>
+        <v>1780.069805966459</v>
       </c>
       <c r="X20" t="n">
-        <v>2169.349938436999</v>
+        <v>1390.617200899516</v>
       </c>
       <c r="Y20" t="n">
-        <v>1772.8592293576</v>
+        <v>994.1264918201171</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.4571421869437</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="C22" t="n">
-        <v>654.4571421869437</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="D22" t="n">
-        <v>498.8240290894584</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="E22" t="n">
-        <v>343.2652169486609</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="F22" t="n">
-        <v>185.9392821616339</v>
+        <v>2691.714663140105</v>
       </c>
       <c r="G22" t="n">
-        <v>185.9392821616339</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H22" t="n">
-        <v>185.9392821616339</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I22" t="n">
-        <v>92.49739787801357</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>839.6651608782449</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="T22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="U22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="V22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="W22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="X22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.6651608782449</v>
+        <v>2849.040597927132</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1715.01185657461</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="C23" t="n">
-        <v>1321.83635507754</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="D23" t="n">
-        <v>936.3952262942078</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E23" t="n">
-        <v>533.8117014107522</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F23" t="n">
-        <v>116.91726294073</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G23" t="n">
-        <v>116.91726294073</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>116.91726294073</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2901.449916432349</v>
+        <v>2971.061260159581</v>
       </c>
       <c r="U23" t="n">
-        <v>2901.449916432349</v>
+        <v>2715.30853059418</v>
       </c>
       <c r="V23" t="n">
-        <v>2901.449916432349</v>
+        <v>2373.201721297698</v>
       </c>
       <c r="W23" t="n">
-        <v>2901.449916432349</v>
+        <v>2002.202686265986</v>
       </c>
       <c r="X23" t="n">
-        <v>2511.997311365405</v>
+        <v>1612.750081199043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2115.506602286006</v>
+        <v>1216.259372119644</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C24" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D24" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>787.6208502301403</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>1271.186936128453</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1898.958585755135</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>2554.736556965694</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>3071.256839556675</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R24" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S24" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T24" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U24" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V24" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W24" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X24" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y24" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>209.3319294909424</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C25" t="n">
-        <v>209.3319294909424</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D25" t="n">
-        <v>209.3319294909424</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T25" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U25" t="n">
-        <v>475.3112746701182</v>
+        <v>2987.899432129239</v>
       </c>
       <c r="V25" t="n">
-        <v>209.3319294909424</v>
+        <v>2721.920086950063</v>
       </c>
       <c r="W25" t="n">
-        <v>209.3319294909424</v>
+        <v>2438.589684881241</v>
       </c>
       <c r="X25" t="n">
-        <v>209.3319294909424</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.3319294909424</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2211.713593757527</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C26" t="n">
-        <v>1818.538092260458</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D26" t="n">
-        <v>1433.096963477125</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E26" t="n">
-        <v>1030.51343859367</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F26" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6254,22 +6256,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2882.455782765193</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X26" t="n">
-        <v>2882.455782765193</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y26" t="n">
-        <v>2612.208339468924</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="27">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6412,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>840.7357579845172</v>
+        <v>1517.106499792199</v>
       </c>
       <c r="C29" t="n">
-        <v>447.5602564874478</v>
+        <v>1123.930998295129</v>
       </c>
       <c r="D29" t="n">
-        <v>62.11912770411553</v>
+        <v>1123.930998295129</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411553</v>
+        <v>1123.930998295129</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6488,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2963.780264611034</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2740.27966217045</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>2740.27966217045</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V29" t="n">
-        <v>2398.172852873969</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W29" t="n">
-        <v>2027.173817842256</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X29" t="n">
-        <v>1637.721212775313</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="Y29" t="n">
-        <v>1241.230503695914</v>
+        <v>1517.106499792199</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>96.81867335321709</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L30" t="n">
-        <v>580.3847592515303</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F31" t="n">
-        <v>2665.300048349927</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G31" t="n">
-        <v>2497.045994449372</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H31" t="n">
-        <v>2341.567443410866</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I31" t="n">
-        <v>2208.473018047944</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J31" t="n">
         <v>2204.509362664224</v>
@@ -6649,22 +6651,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>2896.159844607704</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>2896.159844607704</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>2896.159844607704</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>2612.829442538882</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.625983136954</v>
+        <v>2612.829442538882</v>
       </c>
       <c r="Y31" t="n">
-        <v>2822.625983136954</v>
+        <v>2389.717381355525</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.459527283501</v>
+        <v>979.0728748920524</v>
       </c>
       <c r="C32" t="n">
-        <v>2004.284025786432</v>
+        <v>585.8973733949829</v>
       </c>
       <c r="D32" t="n">
-        <v>1618.8428970031</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.259372119644</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F32" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G32" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3102.117381518569</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>3102.117381518569</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2878.616779077985</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2878.616779077985</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2536.509969781504</v>
       </c>
       <c r="W32" t="n">
-        <v>2786.912132350445</v>
+        <v>2165.510934749791</v>
       </c>
       <c r="X32" t="n">
-        <v>2397.459527283501</v>
+        <v>1776.058329682848</v>
       </c>
       <c r="Y32" t="n">
-        <v>2397.459527283501</v>
+        <v>1379.567620603449</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>2920.748366514475</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>2750.543248580464</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>2594.910135482979</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>2594.910135482979</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2437.584200695951</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>2269.330146795397</v>
       </c>
       <c r="H34" t="n">
         <v>2204.509362664224</v>
@@ -6892,16 +6894,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V34" t="n">
-        <v>2945.03214813342</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W34" t="n">
-        <v>2661.701746064598</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X34" t="n">
-        <v>2427.62142384758</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>799.3649336496217</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C35" t="n">
-        <v>799.3649336496217</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D35" t="n">
-        <v>799.3649336496217</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E35" t="n">
-        <v>799.3649336496217</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F35" t="n">
         <v>799.3649336496217</v>
@@ -6929,10 +6931,10 @@
         <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>2977.154075963638</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>2721.401346398237</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>2379.294537101755</v>
       </c>
       <c r="W35" t="n">
-        <v>1709.09074009817</v>
+        <v>2008.295502070043</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.638135031227</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="Y35" t="n">
-        <v>923.1474259518279</v>
+        <v>1618.8428970031</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.5918232409357</v>
+        <v>2374.714480598234</v>
       </c>
       <c r="C37" t="n">
-        <v>225.5918232409357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D37" t="n">
-        <v>225.5918232409357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E37" t="n">
-        <v>225.5918232409357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F37" t="n">
-        <v>225.5918232409357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G37" t="n">
-        <v>225.5918232409357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5918232409357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>525.0310145964513</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U37" t="n">
-        <v>491.5711684201115</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V37" t="n">
-        <v>225.5918232409357</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W37" t="n">
-        <v>225.5918232409357</v>
+        <v>2822.625983136954</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5918232409357</v>
+        <v>2783.034560472892</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.5918232409357</v>
+        <v>2559.922499289536</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>524.5392950451601</v>
+        <v>1829.717598408996</v>
       </c>
       <c r="C38" t="n">
-        <v>524.5392950451601</v>
+        <v>1829.717598408996</v>
       </c>
       <c r="D38" t="n">
-        <v>524.5392950451601</v>
+        <v>1444.276469625663</v>
       </c>
       <c r="E38" t="n">
-        <v>524.5392950451601</v>
+        <v>1041.692944742208</v>
       </c>
       <c r="F38" t="n">
-        <v>524.5392950451601</v>
+        <v>624.7985062721856</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>211.6357507601887</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V38" t="n">
-        <v>2080.089775129883</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="W38" t="n">
-        <v>1709.09074009817</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.638135031227</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="Y38" t="n">
-        <v>923.1474259518279</v>
+        <v>2230.212344120393</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7354,16 +7356,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>636.8490770607943</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T40" t="n">
-        <v>401.1300252290284</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U40" t="n">
-        <v>115.6912334709294</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V40" t="n">
         <v>62.11912770411553</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1326.874862298514</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>1326.874862298514</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>941.4337335151823</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>941.4337335151823</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F41" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V41" t="n">
-        <v>2080.089775129883</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W41" t="n">
-        <v>1709.09074009817</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X41" t="n">
-        <v>1326.874862298514</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y41" t="n">
-        <v>1326.874862298514</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>71.3381689377978</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>239.5922228383523</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>239.5922228383523</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5922228383523</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2073.376476849992</v>
+        <v>2308.970930414981</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.200975352922</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.75984656959</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F44" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7679,19 +7681,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2870.361931640788</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2870.361931640788</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2870.361931640788</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>2870.361931640788</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y44" t="n">
-        <v>2473.871222561389</v>
+        <v>2709.465676126377</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.7522408016008</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="C46" t="n">
-        <v>217.7522408016008</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F46" t="n">
         <v>62.11912770411553</v>
@@ -7828,28 +7830,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>217.7522408016008</v>
+        <v>736.8557867769819</v>
       </c>
       <c r="V46" t="n">
-        <v>217.7522408016008</v>
+        <v>736.8557867769819</v>
       </c>
       <c r="W46" t="n">
-        <v>217.7522408016008</v>
+        <v>453.5253847081595</v>
       </c>
       <c r="X46" t="n">
-        <v>217.7522408016008</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7522408016008</v>
+        <v>219.4450624911426</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8292,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>402.611255301132</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>258.8480380294549</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9717,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.1334109295184</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -10127,7 +10129,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10191,7 +10193,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>124.646981443537</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,16 +10202,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,22 +10667,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10899,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.0244253199895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11066,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11139,13 +11141,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>514.986373519011</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,7 +11156,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11373,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.5579073425375</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>255.7586551515612</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>266.4435483767194</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>171.6063115238626</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22960,10 +22962,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22999,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>87.60371089983551</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>14.40907835927567</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>87.60371089983551</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23309,19 +23311,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>121.754786033474</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>78.72709640014719</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>70.26927520960623</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23507,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>15.06654988158769</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23735,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>87.60371089983551</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>135.7503298808103</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.6807445712351</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>70.26927520960632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.25601566850881</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>69.10327304716668</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>82.70359185421151</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>87.71942262044439</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>8.262550250430905</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24412,22 +24414,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24503,13 +24505,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>110.5774867114537</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>124.9808331252986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24616,13 +24618,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>106.1561713834715</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>228.3588358247295</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>24.0940601195646</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24847,19 +24849,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>26.1504686422759</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>25.66328612135678</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24904,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>33.81237092699793</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>51.43523435461702</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>89.75118923825944</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25132,16 +25134,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>104.0045570257512</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>273.9451308750987</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25160,10 +25162,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>93.75131026646076</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25330,10 +25332,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>249.4591561259416</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>192.5440105574257</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.867748656681783</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>172.8207631036618</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>87.62118754448952</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>7.164359994614756</v>
+        <v>373.5851664031125</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7969147067755</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>87.60371089983545</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25919,7 +25921,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>19.95669324040855</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -26026,13 +26028,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>101.0403972573647</v>
+        <v>58.14114400651886</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170309</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170309</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170308</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170309</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170308</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170308</v>
       </c>
     </row>
   </sheetData>
@@ -26320,25 +26322,25 @@
         <v>241723.0823229922</v>
       </c>
       <c r="E2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="F2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="G2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="H2" t="n">
+        <v>241723.0823229922</v>
+      </c>
+      <c r="I2" t="n">
+        <v>241723.0823229922</v>
+      </c>
+      <c r="J2" t="n">
         <v>241723.0823229923</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>241723.0823229923</v>
-      </c>
-      <c r="J2" t="n">
-        <v>241723.0823229922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>241723.0823229922</v>
       </c>
       <c r="L2" t="n">
         <v>241723.0823229922</v>
@@ -26347,13 +26349,13 @@
         <v>241723.0823229923</v>
       </c>
       <c r="N2" t="n">
+        <v>241723.0823229923</v>
+      </c>
+      <c r="O2" t="n">
         <v>241723.0823229922</v>
       </c>
-      <c r="O2" t="n">
-        <v>241723.0823229923</v>
-      </c>
       <c r="P2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
     </row>
     <row r="3">
@@ -26418,28 +26420,28 @@
         <v>13453.11359961299</v>
       </c>
       <c r="C4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="D4" t="n">
         <v>13453.11359961298</v>
       </c>
       <c r="E4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="F4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="G4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="H4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="I4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="J4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="K4" t="n">
         <v>13453.11359961299</v>
@@ -26451,13 +26453,13 @@
         <v>13453.11359961299</v>
       </c>
       <c r="N4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="O4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="P4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-112787.5237515774</v>
       </c>
       <c r="C6" t="n">
-        <v>147431.8316682514</v>
+        <v>147431.8316682515</v>
       </c>
       <c r="D6" t="n">
-        <v>147431.8316682514</v>
+        <v>147431.8316682515</v>
       </c>
       <c r="E6" t="n">
-        <v>181059.4316682514</v>
+        <v>181059.4316682515</v>
       </c>
       <c r="F6" t="n">
         <v>181059.4316682515</v>
       </c>
       <c r="G6" t="n">
+        <v>181059.4316682515</v>
+      </c>
+      <c r="H6" t="n">
         <v>181059.4316682514</v>
-      </c>
-      <c r="H6" t="n">
-        <v>181059.4316682515</v>
       </c>
       <c r="I6" t="n">
         <v>181059.4316682515</v>
       </c>
       <c r="J6" t="n">
-        <v>-22104.28144444357</v>
+        <v>-22104.28144444351</v>
       </c>
       <c r="K6" t="n">
+        <v>181059.4316682515</v>
+      </c>
+      <c r="L6" t="n">
         <v>181059.4316682514</v>
-      </c>
-      <c r="L6" t="n">
-        <v>181059.4316682515</v>
       </c>
       <c r="M6" t="n">
         <v>181059.4316682515</v>
       </c>
       <c r="N6" t="n">
+        <v>181059.4316682515</v>
+      </c>
+      <c r="O6" t="n">
         <v>181059.4316682514</v>
       </c>
-      <c r="O6" t="n">
-        <v>181059.4316682515</v>
-      </c>
       <c r="P6" t="n">
-        <v>181059.4316682515</v>
+        <v>181059.4316682514</v>
       </c>
     </row>
   </sheetData>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>312.5509084442137</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.0500461102038</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.0500461102036</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,16 +36922,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>633.6373032706776</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,7 +37876,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073373.705471143</v>
+        <v>1068839.882301645</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543014</v>
+        <v>1667317.432543015</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977804</v>
+        <v>7966425.477977801</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7651780.215931388</v>
+        <v>7651780.215931387</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>133.4850913305375</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>226.4044053725831</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>144.7467681673238</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>142.5875795801574</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>52.73180674434898</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1150,10 +1150,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>233.2385090293387</v>
+        <v>256.6058843702003</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>127.7349619690956</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>99.51081038270344</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.1403276822091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>238.1286523881597</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>199.3111919178301</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1861,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2385090293387</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.6476561767118</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2064,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>54.70041719277052</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>182.925927060141</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2250,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.5461737957331</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>164.1290134772925</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>256.7115579699417</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2778,7 +2778,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>153.2711333470682</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>184.3666582605925</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6985751920914</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>187.2011841410163</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.800613650335349</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>21.2710444415848</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>64.17257628986151</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.001551092386331</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>127.5142861497167</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>39.19550843742099</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>148.0214568255125</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>202.5932474243366</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.7406737689587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>268.8236463705971</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>11.97291261316126</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>66.03149870010071</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>301.6400355822632</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>1.308702546026032</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3994,7 +3994,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.4432598339992</v>
+        <v>165.2599640362304</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2277.454568280369</v>
+        <v>1716.318680837559</v>
       </c>
       <c r="C2" t="n">
-        <v>2142.621142693967</v>
+        <v>1323.143179340489</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.180013910635</v>
+        <v>937.702050557157</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F2" t="n">
         <v>937.702050557157</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2677.949313991765</v>
+        <v>2877.265066647612</v>
       </c>
       <c r="V2" t="n">
-        <v>2677.949313991765</v>
+        <v>2877.265066647612</v>
       </c>
       <c r="W2" t="n">
-        <v>2677.949313991765</v>
+        <v>2506.266031615899</v>
       </c>
       <c r="X2" t="n">
-        <v>2677.949313991765</v>
+        <v>2116.813426548956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2677.949313991765</v>
+        <v>2116.813426548956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>175.2341099238429</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>175.2341099238429</v>
+        <v>1556.043084271717</v>
       </c>
       <c r="M3" t="n">
-        <v>803.0057595505241</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.906012246416</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C5" t="n">
-        <v>608.7305107493462</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D5" t="n">
-        <v>608.7305107493462</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E5" t="n">
-        <v>206.1469858658907</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F5" t="n">
-        <v>206.1469858658907</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
         <v>62.11912770411553</v>
@@ -4603,16 +4603,16 @@
         <v>2901.449916432349</v>
       </c>
       <c r="V5" t="n">
-        <v>2559.343107135867</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W5" t="n">
-        <v>2188.344072104155</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.891467037211</v>
+        <v>2477.186430143718</v>
       </c>
       <c r="Y5" t="n">
-        <v>1402.400757957813</v>
+        <v>2080.695721064319</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1286.571845448837</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>797.8978469320741</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="V7" t="n">
-        <v>115.6912334709294</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W7" t="n">
-        <v>115.6912334709294</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2308.970930414981</v>
+        <v>2085.470327974397</v>
       </c>
       <c r="C8" t="n">
-        <v>1915.795428917911</v>
+        <v>1692.294826477328</v>
       </c>
       <c r="D8" t="n">
-        <v>1530.354300134579</v>
+        <v>1692.294826477328</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.770775251123</v>
+        <v>1289.711301593872</v>
       </c>
       <c r="F8" t="n">
-        <v>710.876336781101</v>
+        <v>872.8168631238499</v>
       </c>
       <c r="G8" t="n">
-        <v>297.7135812691042</v>
+        <v>459.654107611853</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4834,22 +4834,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X8" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="Y8" t="n">
-        <v>2709.465676126377</v>
+        <v>2485.965073685794</v>
       </c>
     </row>
     <row r="9">
@@ -4892,10 +4892,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
         <v>1740.468202408463</v>
@@ -4986,25 +4986,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y10" t="n">
         <v>62.11912770411553</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.1437813709033</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C11" t="n">
-        <v>850.1437813709033</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D11" t="n">
-        <v>464.702652587571</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E11" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G11" t="n">
         <v>62.11912770411553</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3005.440415122237</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>2749.687685556836</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>2407.580876260355</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W11" t="n">
-        <v>2036.581841228642</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X11" t="n">
-        <v>1647.129236161699</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y11" t="n">
-        <v>1250.6385270823</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>839.6651608782449</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="U13" t="n">
-        <v>839.6651608782449</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V13" t="n">
-        <v>839.6651608782449</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W13" t="n">
-        <v>839.6651608782449</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>799.3649336496217</v>
+        <v>1696.017722907454</v>
       </c>
       <c r="C14" t="n">
-        <v>799.3649336496217</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="D14" t="n">
-        <v>799.3649336496217</v>
+        <v>917.4010926270519</v>
       </c>
       <c r="E14" t="n">
-        <v>799.3649336496217</v>
+        <v>514.8175677435963</v>
       </c>
       <c r="F14" t="n">
-        <v>799.3649336496217</v>
+        <v>514.8175677435963</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2021781376249</v>
+        <v>101.6548122315995</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>101.6548122315995</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U14" t="n">
-        <v>2698.908837835555</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V14" t="n">
-        <v>2356.802028539073</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W14" t="n">
-        <v>1985.80299350736</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X14" t="n">
-        <v>1596.350388440417</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y14" t="n">
-        <v>1199.859679361019</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M15" t="n">
         <v>1223.947919817482</v>
@@ -5460,19 +5460,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
         <v>62.11912770411553</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2308.970930414981</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C17" t="n">
-        <v>1915.795428917911</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D17" t="n">
-        <v>1530.354300134579</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1127.770775251123</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>710.876336781101</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>297.7135812691042</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y17" t="n">
-        <v>2709.465676126377</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5703,19 +5703,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>836.6493258247469</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U19" t="n">
-        <v>551.2105340666479</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V19" t="n">
-        <v>285.2311888874722</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W19" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
         <v>62.11912770411553</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>593.6317461087201</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C20" t="n">
-        <v>200.4562446116507</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D20" t="n">
-        <v>200.4562446116507</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E20" t="n">
-        <v>200.4562446116507</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F20" t="n">
-        <v>200.4562446116507</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G20" t="n">
         <v>200.4562446116507</v>
@@ -5779,25 +5779,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="U20" t="n">
-        <v>2493.175650294653</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="V20" t="n">
-        <v>2151.068840998172</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="W20" t="n">
-        <v>1780.069805966459</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="X20" t="n">
-        <v>1390.617200899516</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y20" t="n">
-        <v>994.1264918201171</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2691.714663140105</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>2849.040597927132</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2849.040597927132</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>2849.040597927132</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>2849.040597927132</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1216.259372119644</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C23" t="n">
-        <v>1216.259372119644</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D23" t="n">
-        <v>1216.259372119644</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>2971.061260159581</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U23" t="n">
-        <v>2715.30853059418</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V23" t="n">
-        <v>2373.201721297698</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W23" t="n">
-        <v>2002.202686265986</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X23" t="n">
-        <v>1612.750081199043</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y23" t="n">
-        <v>1216.259372119644</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>2987.899432129239</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>2721.920086950063</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>2438.589684881241</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1660.213721337995</v>
+        <v>1350.592944733249</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.038219840925</v>
+        <v>1350.592944733249</v>
       </c>
       <c r="D26" t="n">
-        <v>881.5970910575932</v>
+        <v>965.1518159499171</v>
       </c>
       <c r="E26" t="n">
-        <v>479.0135661741377</v>
+        <v>965.1518159499171</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W26" t="n">
-        <v>2846.651781195734</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X26" t="n">
-        <v>2457.199176128791</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="Y26" t="n">
-        <v>2060.708467049392</v>
+        <v>1350.592944733249</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6414,16 +6414,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W28" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X28" t="n">
         <v>62.11912770411553</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1517.106499792199</v>
+        <v>1164.818808418026</v>
       </c>
       <c r="C29" t="n">
-        <v>1123.930998295129</v>
+        <v>771.6433069209571</v>
       </c>
       <c r="D29" t="n">
-        <v>1123.930998295129</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E29" t="n">
-        <v>1123.930998295129</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129441</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N29" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O29" t="n">
         <v>2572.923332933306</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2626.703053199792</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2284.59624390331</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>1913.597208871598</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1913.597208871598</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1517.106499792199</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="30">
@@ -6542,13 +6542,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
         <v>1223.947919817482</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>2896.159844607704</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>2896.159844607704</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>2896.159844607704</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2612.829442538882</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>2612.829442538882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2389.717381355525</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>979.0728748920524</v>
+        <v>1353.910913610972</v>
       </c>
       <c r="C32" t="n">
-        <v>585.8973733949829</v>
+        <v>960.7354121139028</v>
       </c>
       <c r="D32" t="n">
-        <v>200.4562446116507</v>
+        <v>575.2942833305706</v>
       </c>
       <c r="E32" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F32" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3102.117381518569</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3102.117381518569</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2878.616779077985</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U32" t="n">
-        <v>2878.616779077985</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V32" t="n">
-        <v>2536.509969781504</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W32" t="n">
-        <v>2165.510934749791</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="X32" t="n">
-        <v>1776.058329682848</v>
+        <v>2150.896368401768</v>
       </c>
       <c r="Y32" t="n">
-        <v>1379.567620603449</v>
+        <v>1754.405659322369</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2920.748366514475</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="C34" t="n">
-        <v>2750.543248580464</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="D34" t="n">
-        <v>2594.910135482979</v>
+        <v>239.1638433212613</v>
       </c>
       <c r="E34" t="n">
-        <v>2594.910135482979</v>
+        <v>83.60503118046381</v>
       </c>
       <c r="F34" t="n">
-        <v>2437.584200695951</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2269.330146795397</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1618.8428970031</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C35" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3097.874010364982</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>3097.874010364982</v>
       </c>
       <c r="T35" t="n">
-        <v>2977.154075963638</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="U35" t="n">
-        <v>2721.401346398237</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V35" t="n">
-        <v>2379.294537101755</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W35" t="n">
-        <v>2008.295502070043</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.8428970031</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y35" t="n">
-        <v>1618.8428970031</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2374.714480598234</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C37" t="n">
-        <v>2204.509362664224</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D37" t="n">
-        <v>2204.509362664224</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>2822.625983136954</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>2783.034560472892</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y37" t="n">
-        <v>2559.922499289536</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1829.717598408996</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C38" t="n">
-        <v>1829.717598408996</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D38" t="n">
-        <v>1444.276469625663</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>1041.692944742208</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>624.7985062721856</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>211.6357507601887</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2882.455782765193</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="U38" t="n">
-        <v>2626.703053199792</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="V38" t="n">
-        <v>2626.703053199792</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="W38" t="n">
-        <v>2626.703053199792</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="X38" t="n">
-        <v>2626.703053199792</v>
+        <v>2473.871222561389</v>
       </c>
       <c r="Y38" t="n">
-        <v>2230.212344120393</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7359,22 +7359,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>613.5372646413903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>328.0984728832913</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>62.11912770411553</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y40" t="n">
         <v>62.11912770411553</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>1149.404444837545</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.200975352922</v>
+        <v>877.865408099568</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861345</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F41" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V41" t="n">
-        <v>2882.455782765193</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W41" t="n">
-        <v>2882.455782765193</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X41" t="n">
-        <v>2870.361931640788</v>
+        <v>1946.389899628341</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>1549.899190548942</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7599,16 +7599,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W43" t="n">
-        <v>128.8176112395708</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X43" t="n">
         <v>62.11912770411553</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2308.970930414981</v>
+        <v>1689.257269830322</v>
       </c>
       <c r="C44" t="n">
-        <v>2004.284025786432</v>
+        <v>1296.081768333253</v>
       </c>
       <c r="D44" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7681,19 +7681,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.956385205776</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="X44" t="n">
-        <v>3105.956385205776</v>
+        <v>2089.752015541719</v>
       </c>
       <c r="Y44" t="n">
-        <v>2709.465676126377</v>
+        <v>2089.752015541719</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
         <v>62.11912770411553</v>
@@ -7839,19 +7839,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>736.8557867769819</v>
+        <v>796.636893643415</v>
       </c>
       <c r="V46" t="n">
-        <v>736.8557867769819</v>
+        <v>530.6575484642392</v>
       </c>
       <c r="W46" t="n">
-        <v>453.5253847081595</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X46" t="n">
-        <v>219.4450624911426</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.4450624911426</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>429.0180294423957</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>510.5662141339224</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N6" t="n">
-        <v>258.8480380294549</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8540,13 +8540,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O9" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8774,13 +8774,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9892,7 +9892,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9956,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10129,7 +10129,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10190,16 +10190,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,7 +10673,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,10 +10910,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>514.986373519011</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7586551515612</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>26.79079689716426</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,19 +22758,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>266.4435483767194</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22843,13 +22843,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>332.8262722719247</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>36.77630269881826</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>87.60371089983551</v>
+        <v>64.23633555897391</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>121.754786033474</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>97.81341805625073</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>15.06654988158769</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>189.9325545642685</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>87.60371089983551</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23797,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>107.7142051367364</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>110.1480023155894</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>70.26927520960632</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>69.10327304716668</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>87.71942262044439</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>248.5964806080295</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24493,22 +24493,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>110.5774867114537</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>243.2186649072147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>228.3588358247295</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>25.66328612135678</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>211.3565054936046</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -24934,10 +24934,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>33.81237092699793</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>134.481630997572</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>89.75118923825944</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25131,13 +25131,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>29.61143348494695</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>93.75131026646076</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>87.97172531928879</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25368,19 +25368,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.5440105574257</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>172.8207631036618</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>18.67234899184086</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,10 +25456,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25599,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>87.62118754448952</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>120.4201001115016</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>373.5851664031125</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>87.60371089983545</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>380.2780149494729</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25921,19 +25921,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26034,7 +26034,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26079,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>58.14114400651886</v>
+        <v>117.3244398042876</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170308</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661739.9350170308</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661739.9350170308</v>
+        <v>661739.9350170309</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661739.9350170308</v>
+        <v>661739.9350170309</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661739.9350170309</v>
+        <v>661739.9350170307</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661739.9350170307</v>
+        <v>661739.9350170308</v>
       </c>
     </row>
     <row r="15">
@@ -26322,10 +26322,10 @@
         <v>241723.0823229922</v>
       </c>
       <c r="E2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="F2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="G2" t="n">
         <v>241723.0823229922</v>
@@ -26346,10 +26346,10 @@
         <v>241723.0823229922</v>
       </c>
       <c r="M2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="O2" t="n">
         <v>241723.0823229922</v>
@@ -26420,10 +26420,10 @@
         <v>13453.11359961299</v>
       </c>
       <c r="C4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="D4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="E4" t="n">
         <v>13453.11359961298</v>
@@ -26438,25 +26438,25 @@
         <v>13453.11359961298</v>
       </c>
       <c r="I4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="K4" t="n">
         <v>13453.11359961298</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13453.11359961298</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13453.11359961299</v>
       </c>
       <c r="L4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="M4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="N4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="O4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="P4" t="n">
         <v>13453.11359961299</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112787.5237515774</v>
+        <v>-113318.6187834426</v>
       </c>
       <c r="C6" t="n">
-        <v>147431.8316682515</v>
+        <v>146900.7366363863</v>
       </c>
       <c r="D6" t="n">
-        <v>147431.8316682515</v>
+        <v>146900.7366363862</v>
       </c>
       <c r="E6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363863</v>
       </c>
       <c r="F6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363862</v>
       </c>
       <c r="G6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363862</v>
       </c>
       <c r="H6" t="n">
-        <v>181059.4316682514</v>
+        <v>180528.3366363863</v>
       </c>
       <c r="I6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363862</v>
       </c>
       <c r="J6" t="n">
-        <v>-22104.28144444351</v>
+        <v>-22635.3764763087</v>
       </c>
       <c r="K6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363864</v>
       </c>
       <c r="L6" t="n">
-        <v>181059.4316682514</v>
+        <v>180528.3366363863</v>
       </c>
       <c r="M6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363863</v>
       </c>
       <c r="N6" t="n">
-        <v>181059.4316682515</v>
+        <v>180528.3366363863</v>
       </c>
       <c r="O6" t="n">
-        <v>181059.4316682514</v>
+        <v>180528.3366363863</v>
       </c>
       <c r="P6" t="n">
-        <v>181059.4316682514</v>
+        <v>180528.3366363863</v>
       </c>
     </row>
   </sheetData>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>338.9576825854775</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>425.1941012797557</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N6" t="n">
-        <v>173.4759251752883</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35260,13 +35260,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O9" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,7 +37393,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37630,10 +37630,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>424.9260266620927</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
